--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Gp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Gp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,33 +558,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.009511333333333332</v>
+        <v>0.009511333333333333</v>
       </c>
       <c r="N2">
         <v>0.028534</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="Q2">
-        <v>0.8556394483828887</v>
+        <v>0.8744849632957779</v>
       </c>
       <c r="R2">
-        <v>7.700755035446</v>
+        <v>7.870364669662</v>
       </c>
       <c r="S2">
-        <v>0.02265176537473209</v>
+        <v>0.0183853805879878</v>
       </c>
       <c r="T2">
-        <v>0.0226517653747321</v>
+        <v>0.0183853805879878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3857.568359333333</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>11572.705078</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.9713288509301208</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.971328850930121</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.009511333333333332</v>
+        <v>0.002426333333333333</v>
       </c>
       <c r="N3">
-        <v>0.028534</v>
+        <v>0.007279</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2032502164018652</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2032502164018652</v>
       </c>
       <c r="Q3">
-        <v>36.6906185217391</v>
+        <v>0.2230803969941111</v>
       </c>
       <c r="R3">
-        <v>330.2155666956519</v>
+        <v>2.007723572947</v>
       </c>
       <c r="S3">
-        <v>0.9713288509301208</v>
+        <v>0.004690095510617619</v>
       </c>
       <c r="T3">
-        <v>0.971328850930121</v>
+        <v>0.004690095510617619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1342213333333333</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H4">
-        <v>0.402664</v>
+        <v>11572.705078</v>
       </c>
       <c r="I4">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J4">
-        <v>3.379669297668818E-05</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.009511333333333332</v>
+        <v>0.009511333333333333</v>
       </c>
       <c r="N4">
         <v>0.028534</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="Q4">
-        <v>0.001276623841777778</v>
+        <v>36.6906185217391</v>
       </c>
       <c r="R4">
-        <v>0.011489614576</v>
+        <v>330.215566695652</v>
       </c>
       <c r="S4">
-        <v>3.379669297668818E-05</v>
+        <v>0.7713923210166016</v>
       </c>
       <c r="T4">
-        <v>3.379669297668818E-05</v>
+        <v>0.7713923210166016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.51770233333333</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H5">
-        <v>70.553107</v>
+        <v>11572.705078</v>
       </c>
       <c r="I5">
-        <v>0.005921715613589566</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J5">
-        <v>0.005921715613589568</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.009511333333333332</v>
+        <v>0.002426333333333333</v>
       </c>
       <c r="N5">
-        <v>0.028534</v>
+        <v>0.007279</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2032502164018652</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.2032502164018652</v>
       </c>
       <c r="Q5">
-        <v>0.2236847061264444</v>
+        <v>9.359746695862443</v>
       </c>
       <c r="R5">
-        <v>2.013162355138</v>
+        <v>84.237720262762</v>
       </c>
       <c r="S5">
-        <v>0.005921715613589566</v>
+        <v>0.1967815484923194</v>
       </c>
       <c r="T5">
-        <v>0.005921715613589568</v>
+        <v>0.1967815484923194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.253661</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H6">
-        <v>0.760983</v>
+        <v>5.522192</v>
       </c>
       <c r="I6">
-        <v>6.387138858074995E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J6">
-        <v>6.387138858074996E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.009511333333333332</v>
+        <v>0.009511333333333333</v>
       </c>
       <c r="N6">
         <v>0.028534</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.7967497835981349</v>
       </c>
       <c r="Q6">
-        <v>0.002412654324666666</v>
+        <v>0.01750780294755556</v>
       </c>
       <c r="R6">
-        <v>0.021713888922</v>
+        <v>0.157570226528</v>
       </c>
       <c r="S6">
-        <v>6.387138858074995E-05</v>
+        <v>0.0003680882278834921</v>
       </c>
       <c r="T6">
-        <v>6.387138858074996E-05</v>
+        <v>0.0003680882278834921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.840730666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.522192</v>
+      </c>
+      <c r="I7">
+        <v>0.000461987232956876</v>
+      </c>
+      <c r="J7">
+        <v>0.000461987232956876</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.002426333333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.007279</v>
+      </c>
+      <c r="O7">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="P7">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="Q7">
+        <v>0.004466226174222222</v>
+      </c>
+      <c r="R7">
+        <v>0.040196035568</v>
+      </c>
+      <c r="S7">
+        <v>9.389900507338398E-05</v>
+      </c>
+      <c r="T7">
+        <v>9.389900507338399E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.11921133333334</v>
+      </c>
+      <c r="H8">
+        <v>93.357634</v>
+      </c>
+      <c r="I8">
+        <v>0.007810310653280575</v>
+      </c>
+      <c r="J8">
+        <v>0.007810310653280575</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.009511333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.028534</v>
+      </c>
+      <c r="O8">
+        <v>0.7967497835981349</v>
+      </c>
+      <c r="P8">
+        <v>0.7967497835981349</v>
+      </c>
+      <c r="Q8">
+        <v>0.2959851920617778</v>
+      </c>
+      <c r="R8">
+        <v>2.663866728556</v>
+      </c>
+      <c r="S8">
+        <v>0.006222863322835506</v>
+      </c>
+      <c r="T8">
+        <v>0.006222863322835506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.11921133333334</v>
+      </c>
+      <c r="H9">
+        <v>93.357634</v>
+      </c>
+      <c r="I9">
+        <v>0.007810310653280575</v>
+      </c>
+      <c r="J9">
+        <v>0.007810310653280575</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.002426333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.007279</v>
+      </c>
+      <c r="O9">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="P9">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="Q9">
+        <v>0.07550557976511112</v>
+      </c>
+      <c r="R9">
+        <v>0.679550217886</v>
+      </c>
+      <c r="S9">
+        <v>0.00158744733044507</v>
+      </c>
+      <c r="T9">
+        <v>0.00158744733044507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.905952</v>
+      </c>
+      <c r="H10">
+        <v>5.717856</v>
+      </c>
+      <c r="I10">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J10">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.009511333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.028534</v>
+      </c>
+      <c r="O10">
+        <v>0.7967497835981349</v>
+      </c>
+      <c r="P10">
+        <v>0.7967497835981349</v>
+      </c>
+      <c r="Q10">
+        <v>0.01812814478933333</v>
+      </c>
+      <c r="R10">
+        <v>0.163153303104</v>
+      </c>
+      <c r="S10">
+        <v>0.0003811304428265067</v>
+      </c>
+      <c r="T10">
+        <v>0.0003811304428265067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.905952</v>
+      </c>
+      <c r="H11">
+        <v>5.717856</v>
+      </c>
+      <c r="I11">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="J11">
+        <v>0.0004783565062362683</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.002426333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.007279</v>
+      </c>
+      <c r="O11">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="P11">
+        <v>0.2032502164018652</v>
+      </c>
+      <c r="Q11">
+        <v>0.004624474869333334</v>
+      </c>
+      <c r="R11">
+        <v>0.041620273824</v>
+      </c>
+      <c r="S11">
+        <v>9.722606340976174E-05</v>
+      </c>
+      <c r="T11">
+        <v>9.722606340976174E-05</v>
       </c>
     </row>
   </sheetData>
